--- a/平成31年度/シースリーカップ/6.大会当日使用/c3cup 得点板用チーム名.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/c3cup 得点板用チーム名.xlsx
@@ -1,184 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12360"/>
   </bookViews>
   <sheets>
-    <sheet name="c3cup2017" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="c3cup2019" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>沼 田</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <r>
+      <t>上越南　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="60"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミニバス教室</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＢＡＤＢＯＹ’Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドサン東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">見附
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="46"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブレイブアローズ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼垂鏡太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半田JSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼田シリウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃尾
+ウィザーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上川西
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="54"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミニバスクラブ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上組
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="60"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こだまキッズ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カミグミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">槻の森
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="60"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ユナイターズ</t>
+    </r>
     <rPh sb="0" eb="1">
-      <t>ヌマ</t>
+      <t>ツキ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>タ</t>
+      <t>モリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>柏 崎</t>
-    <rPh sb="0" eb="1">
-      <t>カシワ</t>
+    <r>
+      <rPr>
+        <sz val="72"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="66"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="50"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オールスターズ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ウチノ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>五 泉</t>
-    <rPh sb="0" eb="1">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あさひ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>栃 尾</t>
-    <rPh sb="0" eb="1">
-      <t>トチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広 神</t>
-    <rPh sb="0" eb="1">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮 内</t>
-    <rPh sb="0" eb="1">
-      <t>ミヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>沼田　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="72"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>シリウス</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>栃尾　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="60"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ウィザーズ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝日MAX'S</t>
-    <rPh sb="0" eb="2">
-      <t>アサヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沼垂鏡太</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>上越南　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="60"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ミニバス教室</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巻JUSTICE</t>
-    <rPh sb="0" eb="1">
-      <t>マキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レッドサン東</t>
-    <rPh sb="5" eb="6">
-      <t>ヒガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">見附     　    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="46"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ブレイブアローズ</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="70"/>
+      <sz val="64"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="46"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="66"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -227,7 +253,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="64"/>
+      <sz val="66"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -235,7 +261,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="46"/>
+      <sz val="50"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -243,10 +269,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="66"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <sz val="54"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -273,24 +299,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,12 +325,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -352,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,50 +619,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2"/>
+    <row r="2" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -647,50 +682,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="230" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="83.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="375" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
-</worksheet>
 </file>